--- a/RECC_ModelConfig_List_V2_2.xlsx
+++ b/RECC_ModelConfig_List_V2_2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="299">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Include_REStrategy_CarSharing</t>
   </si>
   <si>
-    <t>Include_REStrategy_RideHailing</t>
-  </si>
-  <si>
     <t>Include_REStrategy_ModalSplit</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>MoS</t>
   </si>
   <si>
-    <t>Germany_passvehivles_Test</t>
-  </si>
-  <si>
     <t>Sensitivity_pav</t>
   </si>
   <si>
@@ -913,82 +907,22 @@
     <t>RECC_R32CHN_2019_8_14__1_14_43_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
   </si>
   <si>
-    <t>RECC_R32CAN_2019_9_15__10_41_18_ResBlds</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_45_16_ResBlds_FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_46_1_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_46_45_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_47_35_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_48_33_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_49_25_PassVehs</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_50_20_PassVehs_FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_51_11_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_52_1_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_52_52_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_53_43_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_R32CAN_2019_9_15__10_54_33_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__10_55_26_ResBlds</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__10_59_30_ResBlds_FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_0_15_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_1_0_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_1_45_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_2_28_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_3_11_PassVehs</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_3_52_PassVehs_FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_4_35_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_5_19_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_6_8_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_6_49_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_15__11_7_30_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+    <t>RECC_R32IND_2019_9_19__8_10_22_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_19__8_15_2_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_19__8_15_52_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_19__8_16_35_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_19__8_17_16_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_19__8_18_1_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
   </si>
 </sst>
 </file>
@@ -1339,13 +1273,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S29"/>
+  <dimension ref="A2:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1366,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -1387,16 +1321,16 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
         <v>21</v>
@@ -1444,10 +1378,10 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>48</v>
@@ -1464,13 +1398,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1520,10 +1454,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1573,10 +1507,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1626,10 +1560,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1679,10 +1613,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1732,10 +1666,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1780,1075 +1714,6 @@
         <v>13</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R16" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R17" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R18" t="s">
-        <v>13</v>
-      </c>
-      <c r="S18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>13</v>
-      </c>
-      <c r="R19" t="s">
-        <v>13</v>
-      </c>
-      <c r="S19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>13</v>
-      </c>
-      <c r="R20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" t="s">
-        <v>13</v>
-      </c>
-      <c r="S21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" t="s">
-        <v>13</v>
-      </c>
-      <c r="S22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" t="s">
-        <v>13</v>
-      </c>
-      <c r="S23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>13</v>
-      </c>
-      <c r="R25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R26" t="s">
-        <v>13</v>
-      </c>
-      <c r="S26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" t="s">
-        <v>12</v>
-      </c>
-      <c r="P27" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>13</v>
-      </c>
-      <c r="R27" t="s">
-        <v>13</v>
-      </c>
-      <c r="S27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" t="s">
-        <v>13</v>
-      </c>
-      <c r="S28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>13</v>
-      </c>
-      <c r="R29" t="s">
-        <v>13</v>
-      </c>
-      <c r="S29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2876,7 +1741,7 @@
   <dimension ref="B2:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2895,7 +1760,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -2916,16 +1781,16 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
         <v>21</v>
@@ -2972,10 +1837,10 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>48</v>
@@ -2992,13 +1857,13 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -3051,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3104,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3157,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -3210,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3263,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -3316,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -3398,35 +2263,35 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
@@ -3434,40 +2299,40 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
@@ -3498,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S188"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176:S181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3520,7 +2385,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -3541,16 +2406,16 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
         <v>21</v>
@@ -3598,10 +2463,10 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>48</v>
@@ -3618,13 +2483,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -3677,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3730,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -3783,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -3836,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -3889,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -3942,7 +2807,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -3995,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -4048,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -4101,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -4151,13 +3016,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -4210,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -4263,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -4316,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -4369,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -4422,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -4475,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -4528,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -4581,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -4634,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -4687,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -4737,13 +3602,13 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -4796,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -4849,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -4902,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -4955,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -5008,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -5058,13 +3923,13 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -5117,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -5170,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -5223,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -5276,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -5329,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -5382,7 +4247,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -5432,13 +4297,13 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -5491,7 +4356,7 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -5544,7 +4409,7 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -5597,7 +4462,7 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -5650,7 +4515,7 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -5703,7 +4568,7 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -5753,13 +4618,13 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -5812,7 +4677,7 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -5865,7 +4730,7 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
@@ -5918,7 +4783,7 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
@@ -5971,7 +4836,7 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -6024,7 +4889,7 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
@@ -6077,7 +4942,7 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -6127,13 +4992,13 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -6186,7 +5051,7 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -6239,7 +5104,7 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
@@ -6292,7 +5157,7 @@
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
@@ -6345,7 +5210,7 @@
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
@@ -6398,7 +5263,7 @@
         <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
@@ -6448,13 +5313,13 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -6507,7 +5372,7 @@
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
@@ -6560,7 +5425,7 @@
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -6613,7 +5478,7 @@
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -6666,7 +5531,7 @@
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
@@ -6719,7 +5584,7 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -6772,7 +5637,7 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -6822,13 +5687,13 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -6881,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -6934,7 +5799,7 @@
         <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -6987,7 +5852,7 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
@@ -7040,7 +5905,7 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
@@ -7093,7 +5958,7 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
@@ -7143,13 +6008,13 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -7202,7 +6067,7 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
@@ -7255,7 +6120,7 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" t="s">
         <v>13</v>
@@ -7308,7 +6173,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -7361,7 +6226,7 @@
         <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
@@ -7414,7 +6279,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
         <v>13</v>
@@ -7467,7 +6332,7 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E76" t="s">
         <v>13</v>
@@ -7517,13 +6382,13 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -7573,10 +6438,10 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -7626,10 +6491,10 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E79" t="s">
         <v>13</v>
@@ -7679,10 +6544,10 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -7732,10 +6597,10 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E81" t="s">
         <v>13</v>
@@ -7785,10 +6650,10 @@
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -7838,13 +6703,13 @@
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -7894,10 +6759,10 @@
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -7947,10 +6812,10 @@
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
@@ -8000,10 +6865,10 @@
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
@@ -8053,10 +6918,10 @@
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -8106,10 +6971,10 @@
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -8159,10 +7024,10 @@
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -8212,13 +7077,13 @@
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -8268,10 +7133,10 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -8321,10 +7186,10 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -8374,10 +7239,10 @@
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E93" t="s">
         <v>13</v>
@@ -8427,10 +7292,10 @@
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C94" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -8480,10 +7345,10 @@
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -8533,13 +7398,13 @@
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -8589,10 +7454,10 @@
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -8642,10 +7507,10 @@
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E98" t="s">
         <v>13</v>
@@ -8695,10 +7560,10 @@
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E99" t="s">
         <v>13</v>
@@ -8748,10 +7613,10 @@
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E100" t="s">
         <v>13</v>
@@ -8801,10 +7666,10 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -8854,10 +7719,10 @@
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
@@ -8907,13 +7772,13 @@
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -8966,7 +7831,7 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -9019,7 +7884,7 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E105" t="s">
         <v>13</v>
@@ -9072,7 +7937,7 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E106" t="s">
         <v>13</v>
@@ -9125,7 +7990,7 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -9178,7 +8043,7 @@
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -9228,13 +8093,13 @@
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E109" t="s">
         <v>12</v>
@@ -9287,7 +8152,7 @@
         <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -9340,7 +8205,7 @@
         <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -9393,7 +8258,7 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E112" t="s">
         <v>13</v>
@@ -9446,7 +8311,7 @@
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -9499,7 +8364,7 @@
         <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -9552,7 +8417,7 @@
         <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -9602,13 +8467,13 @@
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
         <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E116" t="s">
         <v>12</v>
@@ -9661,7 +8526,7 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -9714,7 +8579,7 @@
         <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
@@ -9767,7 +8632,7 @@
         <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -9820,7 +8685,7 @@
         <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
@@ -9873,7 +8738,7 @@
         <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -9923,13 +8788,13 @@
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E122" t="s">
         <v>12</v>
@@ -9982,7 +8847,7 @@
         <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
@@ -10035,7 +8900,7 @@
         <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E124" t="s">
         <v>13</v>
@@ -10088,7 +8953,7 @@
         <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -10141,7 +9006,7 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -10194,7 +9059,7 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -10247,7 +9112,7 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -10297,13 +9162,13 @@
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -10356,7 +9221,7 @@
         <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
@@ -10409,7 +9274,7 @@
         <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E131" t="s">
         <v>12</v>
@@ -10462,7 +9327,7 @@
         <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E132" t="s">
         <v>12</v>
@@ -10515,7 +9380,7 @@
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E133" t="s">
         <v>12</v>
@@ -10568,7 +9433,7 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E134" t="s">
         <v>12</v>
@@ -10621,7 +9486,7 @@
         <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -10674,7 +9539,7 @@
         <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E136" t="s">
         <v>12</v>
@@ -10727,7 +9592,7 @@
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
@@ -10780,7 +9645,7 @@
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E138" t="s">
         <v>12</v>
@@ -10830,13 +9695,13 @@
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C139" t="s">
         <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
@@ -10889,7 +9754,7 @@
         <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E140" t="s">
         <v>13</v>
@@ -10942,7 +9807,7 @@
         <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E141" t="s">
         <v>12</v>
@@ -10995,7 +9860,7 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -11048,7 +9913,7 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
@@ -11101,7 +9966,7 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E144" t="s">
         <v>12</v>
@@ -11154,7 +10019,7 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
@@ -11207,7 +10072,7 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E146" t="s">
         <v>12</v>
@@ -11260,7 +10125,7 @@
         <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E147" t="s">
         <v>12</v>
@@ -11313,7 +10178,7 @@
         <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
@@ -11366,7 +10231,7 @@
         <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -11416,13 +10281,13 @@
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C150" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
@@ -11472,10 +10337,10 @@
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C151" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E151" t="s">
         <v>13</v>
@@ -11525,10 +10390,10 @@
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C152" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -11578,10 +10443,10 @@
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C153" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
@@ -11631,10 +10496,10 @@
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C154" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D154" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E154" t="s">
         <v>13</v>
@@ -11684,10 +10549,10 @@
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D155" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E155" t="s">
         <v>13</v>
@@ -11737,13 +10602,13 @@
     </row>
     <row r="156" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C156" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -11793,10 +10658,10 @@
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C157" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -11846,10 +10711,10 @@
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C158" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E158" t="s">
         <v>13</v>
@@ -11899,10 +10764,10 @@
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C159" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E159" t="s">
         <v>13</v>
@@ -11952,10 +10817,10 @@
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C160" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -12005,10 +10870,10 @@
     </row>
     <row r="161" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C161" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E161" t="s">
         <v>13</v>
@@ -12058,10 +10923,10 @@
     </row>
     <row r="162" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C162" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
@@ -12111,13 +10976,13 @@
     </row>
     <row r="163" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B163" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C163" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D163" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -12167,10 +11032,10 @@
     </row>
     <row r="164" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C164" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D164" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -12220,10 +11085,10 @@
     </row>
     <row r="165" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C165" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D165" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E165" t="s">
         <v>13</v>
@@ -12273,10 +11138,10 @@
     </row>
     <row r="166" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C166" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D166" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E166" t="s">
         <v>13</v>
@@ -12326,10 +11191,10 @@
     </row>
     <row r="167" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C167" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D167" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E167" t="s">
         <v>13</v>
@@ -12379,10 +11244,10 @@
     </row>
     <row r="168" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C168" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D168" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E168" t="s">
         <v>13</v>
@@ -12432,13 +11297,13 @@
     </row>
     <row r="169" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C169" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E169" t="s">
         <v>12</v>
@@ -12488,10 +11353,10 @@
     </row>
     <row r="170" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C170" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -12541,10 +11406,10 @@
     </row>
     <row r="171" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C171" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -12594,10 +11459,10 @@
     </row>
     <row r="172" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C172" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E172" t="s">
         <v>13</v>
@@ -12647,10 +11512,10 @@
     </row>
     <row r="173" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C173" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E173" t="s">
         <v>13</v>
@@ -12700,10 +11565,10 @@
     </row>
     <row r="174" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C174" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E174" t="s">
         <v>13</v>
@@ -12753,10 +11618,10 @@
     </row>
     <row r="175" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C175" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E175" t="s">
         <v>13</v>
@@ -12806,13 +11671,13 @@
     </row>
     <row r="176" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C176" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D176" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E176" t="s">
         <v>12</v>
@@ -12862,10 +11727,10 @@
     </row>
     <row r="177" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C177" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D177" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E177" t="s">
         <v>13</v>
@@ -12915,10 +11780,10 @@
     </row>
     <row r="178" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C178" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D178" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -12968,10 +11833,10 @@
     </row>
     <row r="179" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C179" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E179" t="s">
         <v>13</v>
@@ -13021,10 +11886,10 @@
     </row>
     <row r="180" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C180" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
@@ -13074,10 +11939,10 @@
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C181" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D181" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E181" t="s">
         <v>13</v>
@@ -13127,13 +11992,13 @@
     </row>
     <row r="182" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C182" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D182" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E182" t="s">
         <v>12</v>
@@ -13183,10 +12048,10 @@
     </row>
     <row r="183" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C183" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E183" t="s">
         <v>13</v>
@@ -13236,10 +12101,10 @@
     </row>
     <row r="184" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C184" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -13289,10 +12154,10 @@
     </row>
     <row r="185" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C185" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -13342,10 +12207,10 @@
     </row>
     <row r="186" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C186" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E186" t="s">
         <v>13</v>
@@ -13395,10 +12260,10 @@
     </row>
     <row r="187" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C187" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E187" t="s">
         <v>13</v>
@@ -13448,10 +12313,10 @@
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C188" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E188" t="s">
         <v>13</v>
@@ -13506,10 +12371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D28"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13534,160 +12399,42 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13730,55 +12477,55 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
@@ -13786,60 +12533,60 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
@@ -13847,35 +12594,35 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
@@ -13883,40 +12630,40 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
@@ -13924,35 +12671,35 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
@@ -13960,40 +12707,40 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
@@ -14001,35 +12748,35 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.45">
@@ -14037,40 +12784,40 @@
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.45">
@@ -14078,35 +12825,35 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D67" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.45">
@@ -14114,40 +12861,40 @@
         <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
@@ -14155,35 +12902,35 @@
         <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.45">
@@ -14191,40 +12938,40 @@
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D83" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D84" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D86" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D87" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.45">
@@ -14232,35 +12979,35 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D89" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.45">
@@ -14268,40 +13015,40 @@
         <v>34</v>
       </c>
       <c r="C94" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D95" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D96" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D100" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.45">
@@ -14309,35 +13056,35 @@
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D102" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D103" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D104" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D105" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D106" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.45">
@@ -14345,40 +13092,40 @@
         <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D110" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D112" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D113" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.45">
@@ -14386,35 +13133,35 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D115" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D116" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D117" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D118" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D119" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.45">
@@ -14422,40 +13169,40 @@
         <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D120" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D122" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D123" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D124" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.45">
@@ -14463,55 +13210,55 @@
         <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D127" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D128" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D129" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D130" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D131" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D132" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D133" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D134" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D135" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D136" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.45">
@@ -14519,60 +13266,60 @@
         <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D137" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D139" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D140" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D141" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D142" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D143" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D144" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D146" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D147" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.45">
@@ -14580,35 +13327,35 @@
         <v>40</v>
       </c>
       <c r="C148" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D150" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D151" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D152" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D153" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.45">
@@ -14616,40 +13363,40 @@
         <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D154" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D155" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D156" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D157" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D158" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D159" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D160" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.45">
@@ -14657,35 +13404,35 @@
         <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D162" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D163" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D164" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D165" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D166" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.45">
@@ -14693,40 +13440,40 @@
         <v>35</v>
       </c>
       <c r="C167" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D167" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D168" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D169" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D170" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D171" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D172" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D173" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.45">
@@ -14734,35 +13481,35 @@
         <v>39</v>
       </c>
       <c r="C174" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D174" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D175" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D176" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D177" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D178" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D179" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.45">
@@ -14770,40 +13517,40 @@
         <v>39</v>
       </c>
       <c r="C180" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D180" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D181" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D182" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D183" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D184" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D185" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D186" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.45">
@@ -14851,7 +13598,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -14872,16 +13619,16 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
         <v>21</v>
@@ -14929,10 +13676,10 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>48</v>
@@ -14949,13 +13696,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -15008,7 +13755,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -15061,7 +13808,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -15114,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -15167,7 +13914,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -15220,7 +13967,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -15273,7 +14020,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -15326,7 +14073,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -15379,7 +14126,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -15432,7 +14179,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -15482,13 +14229,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -15541,7 +14288,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -15594,7 +14341,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -15647,7 +14394,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -15700,7 +14447,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -15753,7 +14500,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -15806,7 +14553,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -15859,7 +14606,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -15912,7 +14659,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -15965,7 +14712,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -16018,7 +14765,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -16100,7 +14847,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
@@ -16108,7 +14855,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
@@ -16139,8 +14886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16159,7 +14906,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -16180,16 +14927,16 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
-        <v>57</v>
-      </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
         <v>21</v>
@@ -16237,10 +14984,10 @@
         <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>48</v>
@@ -16257,37 +15004,37 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>

--- a/RECC_ModelConfig_List_V2_2.xlsx
+++ b/RECC_ModelConfig_List_V2_2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="478">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -907,22 +907,559 @@
     <t>RECC_R32CHN_2019_8_14__1_14_43_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
   </si>
   <si>
-    <t>RECC_R32IND_2019_9_19__8_10_22_ResBlds</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_19__8_15_2_ResBlds_FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_19__8_15_52_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_19__8_16_35_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_19__8_17_16_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_R32IND_2019_9_19__8_18_1_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+    <t>RECC_R32USA_2019_9_20__16_43_29_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_44_14_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_44_58_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_45_41_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_46_27_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_47_12_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_47_54_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_48_38_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_49_24_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_50_10_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_50_58_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_51_45_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_20__16_52_32_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__16_53_19_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__16_54_17_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__16_55_5_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__16_56_3_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__16_56_55_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__16_57_52_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__16_58_41_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__16_59_28_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__17_0_13_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__17_0_56_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__17_1_38_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__17_2_21_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_20__17_3_8_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_48_10_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_48_56_ResBlds_FYI</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_49_48_ResBlds_FSD</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_50_44_ResBlds_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_51_33_ResBlds_MSU</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_52_27_ResBlds_ULD</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_53_22_ResBlds_RUS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_54_18_ResBlds_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_55_6_ResBlds_MIU</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_55_57_ResBlds_NoR</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_56_48_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_57_38_PassVehs_FYI</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_58_28_PassVehs_FSD</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__1_59_18_PassVehs_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__2_0_10_PassVehs_MSU</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__2_1_2_PassVehs_ULD</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__2_1_55_PassVehs_RUS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__2_2_43_PassVehs_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__2_3_31_PassVehs_CaS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__2_4_23_PassVehs_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_21__2_5_18_PassVehs_NoR</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_6_17_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_12_41_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_13_35_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_14_27_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_15_21_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_16_15_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_17_5_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_17_57_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_18_50_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_19_42_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_20_36_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_21_24_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_21__2_22_16_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_23_3_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_28_54_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_29_40_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_30_27_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_31_13_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_31_59_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_32_46_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_33_31_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_34_16_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_35_1_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_35_47_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_36_32_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_21__2_37_17_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_38_2_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_43_16_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_44_2_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_44_47_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_45_33_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_46_18_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_47_4_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_47_49_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_48_34_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_49_19_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_50_4_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_50_48_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_21__2_51_33_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__3_6_52_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__3_18_15_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__3_24_51_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__3_31_19_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__3_38_2_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__3_45_5_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__3_51_49_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__3_58_35_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__4_5_1_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__4_11_44_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__4_18_27_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__4_25_10_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__4_31_53_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__4_38_57_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__4_47_47_ResBlds_FYI</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__4_54_53_ResBlds_FSD</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_1_14_ResBlds_EoL</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_7_29_ResBlds_MSU</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_15_12_ResBlds_ULD</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_23_24_ResBlds_RUS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_30_40_ResBlds_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_37_35_ResBlds_MIU</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_44_38_ResBlds_NoR</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_51_27_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__5_58_35_PassVehs_FYI</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__6_11_30_PassVehs_FSD</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__6_21_43_PassVehs_EoL</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__6_30_34_PassVehs_MSU</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__6_38_4_PassVehs_ULD</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__6_45_43_PassVehs_RUS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__6_52_29_PassVehs_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__7_0_21_PassVehs_CaS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__7_9_48_PassVehs_RiS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_21__7_18_59_PassVehs_NoR</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__9_51_25_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__9_56_55_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__9_57_44_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__9_58_33_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__9_59_22_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__10_0_15_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__10_1_7_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__10_1_56_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__10_2_46_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__10_3_35_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__10_4_24_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__10_5_11_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_21__10_5_54_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_6_38_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_11_25_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_12_10_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_12_54_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_13_38_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_14_22_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_15_6_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_15_50_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_16_34_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_17_18_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_18_2_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_18_46_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_21__10_19_30_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_20_14_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_25_22_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_26_12_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_27_1_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_27_52_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_28_41_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_29_30_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_30_18_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_31_6_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_31_55_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_32_43_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_33_34_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_21__10_34_25_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_35_14_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_36_3_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_37_1_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_37_54_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_38_47_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_39_42_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_40_36_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_41_31_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_42_27_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_43_27_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_44_24_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_45_19_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_R32IND_2019_9_21__10_46_16_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__20_38_34_ResBlds</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__20_54_48_ResBlds_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__21_9_1_ResBlds_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__21_19_50_ResBlds_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__21_30_52_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__21_41_59_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__21_53_8_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__22_5_20_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__22_16_44_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__22_30_29_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__22_41_37_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__22_52_52_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_21__23_4_19_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
   </si>
 </sst>
 </file>
@@ -1273,13 +1810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S9"/>
+  <dimension ref="A2:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1398,10 +1935,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -1454,7 +1991,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1507,7 +2044,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -1560,7 +2097,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
@@ -1613,7 +2150,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -1666,7 +2203,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
@@ -1714,6 +2251,380 @@
         <v>13</v>
       </c>
       <c r="S9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2363,8 +3274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S188"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176:S181"/>
+    <sheetView topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S188" sqref="A176:S188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2483,10 +3394,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -2539,7 +3450,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -2548,10 +3459,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -2592,19 +3503,19 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -2613,10 +3524,10 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -2645,31 +3556,31 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -2698,31 +3609,31 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -2751,34 +3662,34 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -2803,11 +3714,14 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -2825,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -2857,19 +3771,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -2881,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -2910,19 +3824,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -2931,13 +3845,13 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -2963,31 +3877,31 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -3002,48 +3916,45 @@
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -3072,7 +3983,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -3081,28 +3992,28 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
         <v>12</v>
@@ -3125,40 +4036,40 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="s">
         <v>12</v>
@@ -3177,11 +4088,14 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -3190,7 +4104,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -3234,19 +4148,19 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -3287,28 +4201,28 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -3340,19 +4254,19 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -3361,7 +4275,7 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -3393,25 +4307,25 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
         <v>13</v>
@@ -3446,34 +4360,34 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22" t="s">
         <v>12</v>
@@ -3495,6 +4409,9 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -3529,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="s">
         <v>12</v>
@@ -3555,13 +4472,13 @@
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -3588,36 +4505,33 @@
         <v>12</v>
       </c>
       <c r="P24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -3626,10 +4540,10 @@
         <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -3661,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -3673,16 +4587,16 @@
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -3714,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -3726,10 +4640,10 @@
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
@@ -3767,7 +4681,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -3782,7 +4696,7 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
@@ -3794,7 +4708,7 @@
         <v>12</v>
       </c>
       <c r="M28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s">
         <v>12</v>
@@ -3820,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -3847,10 +4761,10 @@
         <v>12</v>
       </c>
       <c r="M29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29" t="s">
         <v>12</v>
@@ -3869,6 +4783,9 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -3876,28 +4793,28 @@
         <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30" t="s">
         <v>12</v>
@@ -3922,17 +4839,14 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -3982,16 +4896,16 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -4035,13 +4949,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -4053,10 +4967,10 @@
         <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -4088,16 +5002,16 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -4106,10 +5020,10 @@
         <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -4141,28 +5055,28 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" t="s">
         <v>12</v>
@@ -4194,34 +5108,34 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
       </c>
       <c r="M36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N36" t="s">
         <v>12</v>
@@ -4247,25 +5161,25 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K37" t="s">
         <v>13</v>
@@ -4274,10 +5188,10 @@
         <v>12</v>
       </c>
       <c r="M37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O37" t="s">
         <v>12</v>
@@ -4296,11 +5210,8 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>59</v>
@@ -4327,7 +5238,7 @@
         <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M38" t="s">
         <v>12</v>
@@ -4353,19 +5264,19 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
@@ -4392,33 +5303,36 @@
         <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -4427,10 +5341,10 @@
         <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40" t="s">
         <v>12</v>
@@ -4459,31 +5373,31 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" t="s">
         <v>12</v>
@@ -4512,31 +5426,31 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
@@ -4565,34 +5479,34 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M43" t="s">
         <v>12</v>
@@ -4617,11 +5531,8 @@
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
         <v>51</v>
@@ -4636,7 +5547,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -4674,25 +5585,25 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -4727,19 +5638,19 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
@@ -4751,7 +5662,7 @@
         <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -4780,28 +5691,28 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K47" t="s">
         <v>13</v>
@@ -4833,37 +5744,37 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L48" t="s">
         <v>12</v>
       </c>
       <c r="M48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N48" t="s">
         <v>12</v>
@@ -4886,40 +5797,40 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" t="s">
         <v>12</v>
       </c>
       <c r="M49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O49" t="s">
         <v>12</v>
@@ -4939,52 +5850,52 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L50" t="s">
         <v>12</v>
       </c>
       <c r="M50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>12</v>
       </c>
       <c r="P50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S50" t="s">
         <v>46</v>
@@ -4992,10 +5903,10 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
         <v>59</v>
@@ -5048,7 +5959,7 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
         <v>59</v>
@@ -5101,7 +6012,7 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
         <v>59</v>
@@ -5154,7 +6065,7 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
@@ -5207,7 +6118,7 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
         <v>59</v>
@@ -5260,7 +6171,7 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>59</v>
@@ -5313,10 +6224,10 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
@@ -5369,7 +6280,7 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
@@ -5422,7 +6333,7 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
@@ -5475,7 +6386,7 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
         <v>51</v>
@@ -5528,7 +6439,7 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
         <v>51</v>
@@ -5581,7 +6492,7 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>51</v>
@@ -5634,7 +6545,7 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
         <v>51</v>
@@ -5687,10 +6598,10 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>59</v>
@@ -5743,7 +6654,7 @@
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>59</v>
@@ -5796,7 +6707,7 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
         <v>59</v>
@@ -5849,7 +6760,7 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
         <v>59</v>
@@ -5902,7 +6813,7 @@
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
         <v>59</v>
@@ -5955,7 +6866,7 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
         <v>59</v>
@@ -6008,10 +6919,10 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
         <v>51</v>
@@ -6064,7 +6975,7 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
         <v>51</v>
@@ -6117,7 +7028,7 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
         <v>51</v>
@@ -6170,7 +7081,7 @@
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
         <v>51</v>
@@ -6223,7 +7134,7 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
         <v>51</v>
@@ -6276,7 +7187,7 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
         <v>51</v>
@@ -6329,7 +7240,7 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
         <v>51</v>
@@ -6382,10 +7293,10 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
         <v>59</v>
@@ -6438,7 +7349,7 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C78" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
         <v>59</v>
@@ -6491,7 +7402,7 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
         <v>59</v>
@@ -6544,7 +7455,7 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
         <v>59</v>
@@ -6597,7 +7508,7 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
         <v>59</v>
@@ -6650,7 +7561,7 @@
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
         <v>59</v>
@@ -6703,10 +7614,10 @@
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
         <v>51</v>
@@ -6759,7 +7670,7 @@
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
         <v>51</v>
@@ -6812,7 +7723,7 @@
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C85" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>51</v>
@@ -6865,7 +7776,7 @@
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
         <v>51</v>
@@ -6918,7 +7829,7 @@
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
         <v>51</v>
@@ -6971,7 +7882,7 @@
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
         <v>51</v>
@@ -7024,7 +7935,7 @@
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
         <v>51</v>
@@ -7772,10 +8683,10 @@
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
         <v>59</v>
@@ -7828,7 +8739,7 @@
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C104" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
         <v>59</v>
@@ -7881,7 +8792,7 @@
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C105" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
         <v>59</v>
@@ -7934,7 +8845,7 @@
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C106" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
         <v>59</v>
@@ -7987,7 +8898,7 @@
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C107" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D107" t="s">
         <v>59</v>
@@ -8040,7 +8951,7 @@
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C108" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
         <v>59</v>
@@ -8093,10 +9004,10 @@
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
         <v>51</v>
@@ -8149,7 +9060,7 @@
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C110" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
         <v>51</v>
@@ -8202,7 +9113,7 @@
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C111" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
         <v>51</v>
@@ -8255,7 +9166,7 @@
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C112" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
         <v>51</v>
@@ -8308,7 +9219,7 @@
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C113" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
         <v>51</v>
@@ -8361,7 +9272,7 @@
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C114" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
         <v>51</v>
@@ -8414,7 +9325,7 @@
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C115" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
         <v>51</v>
@@ -8467,10 +9378,10 @@
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D116" t="s">
         <v>59</v>
@@ -8523,7 +9434,7 @@
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C117" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D117" t="s">
         <v>59</v>
@@ -8576,7 +9487,7 @@
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C118" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D118" t="s">
         <v>59</v>
@@ -8629,7 +9540,7 @@
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C119" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D119" t="s">
         <v>59</v>
@@ -8682,7 +9593,7 @@
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C120" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D120" t="s">
         <v>59</v>
@@ -8735,7 +9646,7 @@
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C121" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D121" t="s">
         <v>59</v>
@@ -8788,10 +9699,10 @@
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D122" t="s">
         <v>51</v>
@@ -8844,7 +9755,7 @@
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C123" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D123" t="s">
         <v>51</v>
@@ -8897,7 +9808,7 @@
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C124" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D124" t="s">
         <v>51</v>
@@ -8950,7 +9861,7 @@
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C125" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D125" t="s">
         <v>51</v>
@@ -9003,7 +9914,7 @@
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C126" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D126" t="s">
         <v>51</v>
@@ -9056,7 +9967,7 @@
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C127" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D127" t="s">
         <v>51</v>
@@ -9109,7 +10020,7 @@
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C128" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D128" t="s">
         <v>51</v>
@@ -9162,10 +10073,10 @@
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D129" t="s">
         <v>59</v>
@@ -9218,7 +10129,7 @@
     </row>
     <row r="130" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C130" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D130" t="s">
         <v>59</v>
@@ -9227,10 +10138,10 @@
         <v>13</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
@@ -9271,19 +10182,19 @@
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C131" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D131" t="s">
         <v>59</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
@@ -9292,10 +10203,10 @@
         <v>12</v>
       </c>
       <c r="J131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L131" t="s">
         <v>12</v>
@@ -9324,31 +10235,31 @@
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C132" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D132" t="s">
         <v>59</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I132" t="s">
         <v>12</v>
       </c>
       <c r="J132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L132" t="s">
         <v>12</v>
@@ -9377,31 +10288,31 @@
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C133" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D133" t="s">
         <v>59</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
       </c>
       <c r="I133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L133" t="s">
         <v>12</v>
@@ -9430,34 +10341,34 @@
     </row>
     <row r="134" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C134" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D134" t="s">
         <v>59</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I134" t="s">
         <v>13</v>
       </c>
       <c r="J134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M134" t="s">
         <v>12</v>
@@ -9482,11 +10393,14 @@
       </c>
     </row>
     <row r="135" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B135" t="s">
+        <v>84</v>
+      </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D135" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -9504,7 +10418,7 @@
         <v>12</v>
       </c>
       <c r="J135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K135" t="s">
         <v>12</v>
@@ -9536,19 +10450,19 @@
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C136" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D136" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
@@ -9560,7 +10474,7 @@
         <v>12</v>
       </c>
       <c r="K136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L136" t="s">
         <v>12</v>
@@ -9589,19 +10503,19 @@
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C137" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D137" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H137" t="s">
         <v>12</v>
@@ -9610,13 +10524,13 @@
         <v>12</v>
       </c>
       <c r="J137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M137" t="s">
         <v>12</v>
@@ -9642,31 +10556,31 @@
     </row>
     <row r="138" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C138" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D138" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I138" t="s">
         <v>12</v>
       </c>
       <c r="J138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L138" t="s">
         <v>12</v>
@@ -9681,48 +10595,45 @@
         <v>12</v>
       </c>
       <c r="P138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S138" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B139" t="s">
-        <v>86</v>
-      </c>
       <c r="C139" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D139" t="s">
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L139" t="s">
         <v>12</v>
@@ -9751,7 +10662,7 @@
     </row>
     <row r="140" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C140" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D140" t="s">
         <v>51</v>
@@ -9760,28 +10671,28 @@
         <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L140" t="s">
         <v>12</v>
       </c>
       <c r="M140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N140" t="s">
         <v>12</v>
@@ -9804,40 +10715,40 @@
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C141" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D141" t="s">
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L141" t="s">
         <v>12</v>
       </c>
       <c r="M141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O141" t="s">
         <v>12</v>
@@ -9856,11 +10767,14 @@
       </c>
     </row>
     <row r="142" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B142" t="s">
+        <v>132</v>
+      </c>
       <c r="C142" t="s">
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -9869,7 +10783,7 @@
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
@@ -9913,19 +10827,19 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I143" t="s">
         <v>12</v>
@@ -9966,28 +10880,28 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
       </c>
       <c r="I144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L144" t="s">
         <v>12</v>
@@ -10019,19 +10933,19 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I145" t="s">
         <v>12</v>
@@ -10040,7 +10954,7 @@
         <v>13</v>
       </c>
       <c r="K145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L145" t="s">
         <v>12</v>
@@ -10072,25 +10986,25 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K146" t="s">
         <v>13</v>
@@ -10125,34 +11039,34 @@
         <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N147" t="s">
         <v>12</v>
@@ -10174,6 +11088,9 @@
       </c>
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B148" t="s">
+        <v>133</v>
+      </c>
       <c r="C148" t="s">
         <v>26</v>
       </c>
@@ -10208,7 +11125,7 @@
         <v>12</v>
       </c>
       <c r="N148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O148" t="s">
         <v>12</v>
@@ -10234,13 +11151,13 @@
         <v>51</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
@@ -10267,36 +11184,33 @@
         <v>12</v>
       </c>
       <c r="P149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S149" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B150" t="s">
-        <v>81</v>
-      </c>
       <c r="C150" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
         <v>12</v>
@@ -10305,10 +11219,10 @@
         <v>12</v>
       </c>
       <c r="J150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L150" t="s">
         <v>12</v>
@@ -10337,10 +11251,10 @@
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C151" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D151" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E151" t="s">
         <v>13</v>
@@ -10352,16 +11266,16 @@
         <v>13</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I151" t="s">
         <v>12</v>
       </c>
       <c r="J151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L151" t="s">
         <v>12</v>
@@ -10390,10 +11304,10 @@
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C152" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -10405,10 +11319,10 @@
         <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J152" t="s">
         <v>13</v>
@@ -10443,10 +11357,10 @@
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C153" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
@@ -10461,7 +11375,7 @@
         <v>13</v>
       </c>
       <c r="I153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J153" t="s">
         <v>13</v>
@@ -10473,7 +11387,7 @@
         <v>12</v>
       </c>
       <c r="M153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N153" t="s">
         <v>12</v>
@@ -10496,10 +11410,10 @@
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C154" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E154" t="s">
         <v>13</v>
@@ -10526,10 +11440,10 @@
         <v>12</v>
       </c>
       <c r="M154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O154" t="s">
         <v>12</v>
@@ -10548,35 +11462,38 @@
       </c>
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B155" t="s">
+        <v>85</v>
+      </c>
       <c r="C155" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D155" t="s">
         <v>59</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M155" t="s">
         <v>12</v>
@@ -10601,17 +11518,14 @@
       </c>
     </row>
     <row r="156" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B156" t="s">
-        <v>82</v>
-      </c>
       <c r="C156" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D156" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
@@ -10658,19 +11572,19 @@
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C157" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -10711,16 +11625,16 @@
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C158" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D158" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G158" t="s">
         <v>13</v>
@@ -10732,10 +11646,10 @@
         <v>12</v>
       </c>
       <c r="J158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L158" t="s">
         <v>12</v>
@@ -10764,19 +11678,19 @@
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C159" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D159" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -10785,10 +11699,10 @@
         <v>12</v>
       </c>
       <c r="J159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L159" t="s">
         <v>12</v>
@@ -10817,31 +11731,31 @@
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C160" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I160" t="s">
         <v>13</v>
       </c>
       <c r="J160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L160" t="s">
         <v>12</v>
@@ -10870,37 +11784,37 @@
     </row>
     <row r="161" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C161" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J161" t="s">
         <v>13</v>
       </c>
       <c r="K161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L161" t="s">
         <v>12</v>
       </c>
       <c r="M161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N161" t="s">
         <v>12</v>
@@ -10923,28 +11837,28 @@
     </row>
     <row r="162" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C162" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D162" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K162" t="s">
         <v>13</v>
@@ -10953,10 +11867,10 @@
         <v>12</v>
       </c>
       <c r="M162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O162" t="s">
         <v>12</v>
@@ -10975,11 +11889,8 @@
       </c>
     </row>
     <row r="163" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B163" t="s">
-        <v>76</v>
-      </c>
       <c r="C163" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D163" t="s">
         <v>59</v>
@@ -11006,7 +11917,7 @@
         <v>12</v>
       </c>
       <c r="L163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M163" t="s">
         <v>12</v>
@@ -11032,19 +11943,19 @@
     </row>
     <row r="164" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C164" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D164" t="s">
         <v>59</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
@@ -11071,33 +11982,36 @@
         <v>12</v>
       </c>
       <c r="P164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S164" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="165" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B165" t="s">
+        <v>86</v>
+      </c>
       <c r="C165" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H165" t="s">
         <v>12</v>
@@ -11106,10 +12020,10 @@
         <v>12</v>
       </c>
       <c r="J165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L165" t="s">
         <v>12</v>
@@ -11138,31 +12052,31 @@
     </row>
     <row r="166" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C166" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E166" t="s">
         <v>13</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I166" t="s">
         <v>12</v>
       </c>
       <c r="J166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L166" t="s">
         <v>12</v>
@@ -11191,31 +12105,31 @@
     </row>
     <row r="167" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C167" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L167" t="s">
         <v>12</v>
@@ -11244,34 +12158,34 @@
     </row>
     <row r="168" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C168" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D168" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G168" t="s">
         <v>13</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M168" t="s">
         <v>12</v>
@@ -11296,11 +12210,8 @@
       </c>
     </row>
     <row r="169" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B169" t="s">
-        <v>77</v>
-      </c>
       <c r="C169" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D169" t="s">
         <v>51</v>
@@ -11315,7 +12226,7 @@
         <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I169" t="s">
         <v>12</v>
@@ -11353,25 +12264,25 @@
     </row>
     <row r="170" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C170" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D170" t="s">
         <v>51</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
       </c>
       <c r="I170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J170" t="s">
         <v>12</v>
@@ -11406,19 +12317,19 @@
     </row>
     <row r="171" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C171" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D171" t="s">
         <v>51</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H171" t="s">
         <v>12</v>
@@ -11430,7 +12341,7 @@
         <v>13</v>
       </c>
       <c r="K171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L171" t="s">
         <v>12</v>
@@ -11459,28 +12370,28 @@
     </row>
     <row r="172" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C172" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D172" t="s">
         <v>51</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I172" t="s">
         <v>12</v>
       </c>
       <c r="J172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K172" t="s">
         <v>13</v>
@@ -11512,37 +12423,37 @@
     </row>
     <row r="173" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C173" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D173" t="s">
         <v>51</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L173" t="s">
         <v>12</v>
       </c>
       <c r="M173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N173" t="s">
         <v>12</v>
@@ -11565,40 +12476,40 @@
     </row>
     <row r="174" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C174" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D174" t="s">
         <v>51</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L174" t="s">
         <v>12</v>
       </c>
       <c r="M174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O174" t="s">
         <v>12</v>
@@ -11618,52 +12529,52 @@
     </row>
     <row r="175" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C175" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
         <v>51</v>
       </c>
       <c r="E175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L175" t="s">
         <v>12</v>
       </c>
       <c r="M175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O175" t="s">
         <v>12</v>
       </c>
       <c r="P175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S175" t="s">
         <v>46</v>
@@ -11671,10 +12582,10 @@
     </row>
     <row r="176" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D176" t="s">
         <v>59</v>
@@ -11727,7 +12638,7 @@
     </row>
     <row r="177" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C177" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D177" t="s">
         <v>59</v>
@@ -11780,7 +12691,7 @@
     </row>
     <row r="178" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C178" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
         <v>59</v>
@@ -11833,7 +12744,7 @@
     </row>
     <row r="179" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C179" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D179" t="s">
         <v>59</v>
@@ -11886,7 +12797,7 @@
     </row>
     <row r="180" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C180" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D180" t="s">
         <v>59</v>
@@ -11939,7 +12850,7 @@
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C181" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D181" t="s">
         <v>59</v>
@@ -11992,10 +12903,10 @@
     </row>
     <row r="182" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C182" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D182" t="s">
         <v>51</v>
@@ -12048,7 +12959,7 @@
     </row>
     <row r="183" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C183" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
         <v>51</v>
@@ -12101,7 +13012,7 @@
     </row>
     <row r="184" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C184" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D184" t="s">
         <v>51</v>
@@ -12154,7 +13065,7 @@
     </row>
     <row r="185" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C185" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D185" t="s">
         <v>51</v>
@@ -12207,7 +13118,7 @@
     </row>
     <row r="186" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C186" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D186" t="s">
         <v>51</v>
@@ -12260,7 +13171,7 @@
     </row>
     <row r="187" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C187" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D187" t="s">
         <v>51</v>
@@ -12313,7 +13224,7 @@
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C188" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D188" t="s">
         <v>51</v>
@@ -12371,10 +13282,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174:C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12399,7 +13310,7 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -12435,6 +13346,1051 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D57" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D59" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D61" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D64" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D66" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D67" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D69" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D70" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D71" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D72" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D74" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D76" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D78" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D80" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D82" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D84" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D86" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D87" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D89" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D90" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D91" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D92" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D93" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D95" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D96" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D97" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D98" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D99" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D100" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D102" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D103" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D104" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D105" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D106" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D108" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D109" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D110" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D111" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D112" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D113" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D115" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D116" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D117" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D118" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D119" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D121" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D122" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D123" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D124" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D125" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D126" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D128" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D129" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D130" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D131" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D132" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" t="s">
+        <v>67</v>
+      </c>
+      <c r="D133" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D134" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D135" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D136" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D137" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D139" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" t="s">
+        <v>66</v>
+      </c>
+      <c r="D140" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D141" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D142" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D143" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D144" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D145" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D147" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D148" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D149" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D150" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D151" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D152" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B153" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>58</v>
+      </c>
+      <c r="D153" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D154" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D155" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D156" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D157" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D158" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D159" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D160" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D161" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D162" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B163" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D164" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D165" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D166" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D167" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D168" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D169" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D170" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D171" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D172" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D173" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>66</v>
+      </c>
+      <c r="D174" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D175" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D176" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D177" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D178" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D179" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B180" t="s">
+        <v>38</v>
+      </c>
+      <c r="C180" t="s">
+        <v>67</v>
+      </c>
+      <c r="D180" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D181" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D182" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D183" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D184" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D185" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D186" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12448,8 +14404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D187"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/RECC_ModelConfig_List_V2_2.xlsx
+++ b/RECC_ModelConfig_List_V2_2.xlsx
@@ -11,22 +11,23 @@
     <sheet name="Full_List" sheetId="13" r:id="rId2"/>
     <sheet name="Evaluate_RECC_Cascade" sheetId="4" r:id="rId3"/>
     <sheet name="Evaluate_RECC_Cascade_Full" sheetId="14" r:id="rId4"/>
-    <sheet name="_" sheetId="5" r:id="rId5"/>
-    <sheet name="RECC_Config_Sensitivity" sheetId="10" r:id="rId6"/>
-    <sheet name="Evaluate_RECC_Sensitivity" sheetId="9" r:id="rId7"/>
-    <sheet name="____" sheetId="11" r:id="rId8"/>
-    <sheet name="SingleTestRun" sheetId="2" r:id="rId9"/>
-    <sheet name="__" sheetId="6" r:id="rId10"/>
-    <sheet name="GroupTestRun" sheetId="3" r:id="rId11"/>
-    <sheet name="Evaluate_GroupTestRun" sheetId="7" r:id="rId12"/>
-    <sheet name="_____" sheetId="12" r:id="rId13"/>
+    <sheet name="RiS_CaS" sheetId="15" r:id="rId5"/>
+    <sheet name="_" sheetId="5" r:id="rId6"/>
+    <sheet name="RECC_Config_Sensitivity" sheetId="10" r:id="rId7"/>
+    <sheet name="Evaluate_RECC_Sensitivity" sheetId="9" r:id="rId8"/>
+    <sheet name="____" sheetId="11" r:id="rId9"/>
+    <sheet name="SingleTestRun" sheetId="2" r:id="rId10"/>
+    <sheet name="__" sheetId="6" r:id="rId11"/>
+    <sheet name="GroupTestRun" sheetId="3" r:id="rId12"/>
+    <sheet name="Evaluate_GroupTestRun" sheetId="7" r:id="rId13"/>
+    <sheet name="_____" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4504" uniqueCount="315">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -832,27 +833,6 @@
     <t>RECC_G7_2019_9_26__19_14_39_ResBlds_FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
   </si>
   <si>
-    <t>RECC_G7_2019_9_26__19_16_15_PassVehs</t>
-  </si>
-  <si>
-    <t>RECC_G7_2019_9_26__19_17_49_PassVehs_FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_G7_2019_9_26__19_19_25_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_G7_2019_9_26__19_21_0_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_G7_2019_9_26__19_22_36_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_G7_2019_9_26__19_24_13_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_G7_2019_9_26__19_25_49_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
     <t>RECC_G7_2019_9_26__20_42_31_PassVehs</t>
   </si>
   <si>
@@ -886,25 +866,112 @@
     <t>RECC_G7_2019_9_26__20_59_56_PassVehs_NoR</t>
   </si>
   <si>
-    <t>RECC_EU28_2019_9_26__21_3_28_PassVehs</t>
-  </si>
-  <si>
-    <t>RECC_EU28_2019_9_26__21_10_12_PassVehs_FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_EU28_2019_9_26__21_12_25_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_EU28_2019_9_26__21_14_36_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_EU28_2019_9_26__21_16_54_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_EU28_2019_9_26__21_19_10_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_EU28_2019_9_26__21_21_25_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+    <t>RECC_R32IND_2019_9_27__15_47_26_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN_2019_9_27__15_59_30_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_R32CAN_2019_9_27__16_8_18_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_UK_2019_9_27__16_18_2_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN_2019_9_27__16_27_30_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Italy_2019_9_27__16_28_32_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_France_2019_9_27__16_29_32_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_R32USA_2019_9_27__16_41_26_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2019_9_27__16_53_4_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_36_44_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_30__17_38_13_PassVehs_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_44_40_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_46_7_PassVehs_FYI</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_47_48_PassVehs_FSD</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_49_18_PassVehs_EoL</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_50_50_PassVehs_MSU</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_52_20_PassVehs_ULD</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_54_2_PassVehs_RUS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_55_30_PassVehs_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_57_0_PassVehs_CaS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__17_58_32_PassVehs_RiS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__18_0_13_PassVehs_NoR</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__18_1_41_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__18_3_15_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__18_4_44_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__18_6_14_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__18_7_54_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__18_9_37_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_G7_2019_9_30__18_11_14_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_30__18_13_1_PassVehs</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_30__18_14_56_PassVehs_FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_30__18_16_54_PassVehs_FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_30__18_19_3_PassVehs_FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_30__18_21_6_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_30__18_23_4_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_EU28_2019_9_30__18_25_4_PassVehs_FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
   </si>
 </sst>
 </file>
@@ -1255,20 +1322,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S10"/>
+  <dimension ref="A2:S30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24:T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.06640625" customWidth="1"/>
     <col min="5" max="5" width="11.06640625" customWidth="1"/>
     <col min="6" max="6" width="9.796875" customWidth="1"/>
@@ -1379,11 +1446,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -1413,10 +1477,10 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -1442,13 +1506,13 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1466,10 +1530,10 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="s">
         <v>12</v>
@@ -1488,20 +1552,23 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1510,10 +1577,10 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -1542,7 +1609,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -1551,22 +1618,22 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -1595,31 +1662,31 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -1648,37 +1715,37 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
         <v>12</v>
@@ -1701,40 +1768,40 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="s">
         <v>12</v>
@@ -1749,6 +1816,1072 @@
         <v>13</v>
       </c>
       <c r="S10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1758,6 +2891,188 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1771,7 +3086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S10"/>
   <sheetViews>
@@ -2269,7 +3584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D15"/>
   <sheetViews>
@@ -2380,7 +3695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2398,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S146"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D152" sqref="D151:D152"/>
+    <sheetView topLeftCell="A114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140:T146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10171,7 +11486,7 @@
   <dimension ref="B1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10931,37 +12246,37 @@
         <v>67</v>
       </c>
       <c r="D125" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D126" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D127" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D128" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D129" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D130" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D131" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.45">
@@ -11008,37 +12323,37 @@
         <v>67</v>
       </c>
       <c r="D138" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D139" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D140" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D141" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D142" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D143" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D144" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.45">
@@ -11222,57 +12537,57 @@
         <v>57</v>
       </c>
       <c r="D176" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D177" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D178" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D179" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D180" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D181" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D182" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D183" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D184" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D185" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D186" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.45">
@@ -11288,10 +12603,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D145"/>
+  <dimension ref="B1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12051,37 +13366,37 @@
         <v>67</v>
       </c>
       <c r="D125" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D126" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D127" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D128" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D129" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D130" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D131" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.45">
@@ -12128,41 +13443,275 @@
         <v>67</v>
       </c>
       <c r="D138" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D139" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D140" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D141" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D142" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D143" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D144" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D146" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D147" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D148" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D150" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D151" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D152" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D153" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D154" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D158" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D159" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D160" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D161" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D162" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D163" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D164" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D165" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B166" t="s">
+        <v>37</v>
+      </c>
+      <c r="C166" t="s">
+        <v>58</v>
+      </c>
+      <c r="D166" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D167" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D168" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D169" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D170" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D171" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D172" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D173" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D174" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D175" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B176" t="s">
+        <v>37</v>
+      </c>
+      <c r="C176" t="s">
+        <v>57</v>
+      </c>
+      <c r="D176" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D177" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D178" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B145" t="s">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D179" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D180" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D181" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D182" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D183" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D184" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D185" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D186" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12172,6 +13721,76 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12185,12 +13804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14545,7 +16164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D44"/>
   <sheetViews>
@@ -14750,57 +16369,57 @@
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
@@ -14813,7 +16432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14825,186 +16444,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" customWidth="1"/>
-    <col min="4" max="4" width="16.06640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>